--- a/Data/PlayerStatsLeague.xlsx
+++ b/Data/PlayerStatsLeague.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Stats\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\WBtiz\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358513E4-512F-48B0-ADDB-71F4D45530C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92DB245-6AFB-4562-8B34-A65EF38EF60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="495" windowWidth="25875" windowHeight="18930" xr2:uid="{12663629-33BE-6441-8476-0282A2B2AA2F}"/>
+    <workbookView xWindow="19800" yWindow="1425" windowWidth="25875" windowHeight="18930" xr2:uid="{12663629-33BE-6441-8476-0282A2B2AA2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 썸머시즌 타자" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="231">
   <si>
     <t>dWAR</t>
   </si>
@@ -825,6 +825,14 @@
     <t>ERA+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>_Chun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆっちー</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -836,7 +844,7 @@
     <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -886,6 +894,13 @@
       <name val="Malgun Gothic"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -979,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,6 +1051,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,13 +1371,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41CC364-8E50-BF49-8100-2BA6AFB212B3}">
   <dimension ref="A1:BL999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="83" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="5"/>
     <col min="24" max="38" width="10.6640625" style="2"/>
@@ -8319,8 +8338,8 @@
       <c r="A34" t="s">
         <v>225</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>113</v>
+      <c r="B34" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" si="28"/>
@@ -12329,7 +12348,7 @@
         <v>225</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="C53" s="5">
         <f t="shared" si="28"/>

--- a/Data/PlayerStatsLeague.xlsx
+++ b/Data/PlayerStatsLeague.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\WBtiz\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92DB245-6AFB-4562-8B34-A65EF38EF60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A08F55-20C9-431C-88BC-0ED831454850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19800" yWindow="1425" windowWidth="25875" windowHeight="18930" xr2:uid="{12663629-33BE-6441-8476-0282A2B2AA2F}"/>
+    <workbookView xWindow="21570" yWindow="1635" windowWidth="25875" windowHeight="18930" xr2:uid="{12663629-33BE-6441-8476-0282A2B2AA2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 썸머시즌 타자" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="232">
   <si>
     <t>dWAR</t>
   </si>
@@ -833,6 +833,10 @@
     <t>ゆっちー</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>ゆっちー</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -994,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,11 +1053,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1371,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41CC364-8E50-BF49-8100-2BA6AFB212B3}">
   <dimension ref="A1:BL999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -8338,7 +8345,7 @@
       <c r="A34" t="s">
         <v>225</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>230</v>
       </c>
       <c r="C34" s="5">
@@ -15508,7 +15515,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:64" ht="26.25" thickBot="1">
+    <row r="68" spans="1:64" ht="18" thickBot="1">
       <c r="A68" t="s">
         <v>225</v>
       </c>
@@ -34807,7 +34814,7 @@
   <dimension ref="A1:AS62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
@@ -34952,13 +34959,13 @@
       </c>
     </row>
     <row r="2" spans="1:45">
-      <c r="C2">
+      <c r="C2" t="e">
         <f>AVERAGE(C$3:C$1048576)</f>
-        <v>4.7150115750309238</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="W2">
         <f>AVERAGE(W$3:W$1048576)</f>
-        <v>6.7549680888690746</v>
+        <v>6.7042295614138929</v>
       </c>
       <c r="AO2" s="1"/>
     </row>
@@ -35035,7 +35042,7 @@
       </c>
       <c r="X3" s="2">
         <f>W3/$W$2*100</f>
-        <v>59.970864405171788</v>
+        <v>60.424732119912008</v>
       </c>
       <c r="Y3" s="2">
         <f>(L3+P3)/D3</f>
@@ -35106,31 +35113,31 @@
       </c>
       <c r="AQ3">
         <f>($W$2/W3) * D3/9</f>
-        <v>2.4697177968029802</v>
+        <v>2.4511670290434515</v>
       </c>
       <c r="AR3" s="2">
         <f>AQ3+AP3</f>
-        <v>2.8696177968029803</v>
+        <v>2.8510670290434517</v>
       </c>
       <c r="AS3">
         <f>AR3/'리그 상수'!$F$4</f>
-        <v>0.22774744419071258</v>
+        <v>0.22627516103519443</v>
       </c>
     </row>
     <row r="4" spans="1:45">
       <c r="A4" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="1" t="e">
         <f t="shared" ref="C4:C44" si="0">(O4*9) / D4</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D4" s="1">
         <f>SUMIF(Sheet1!$A:$A,'2025 썸머시즌 투수'!B4,Sheet1!$E:$E)</f>
-        <v>12.67</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>38</v>
@@ -35186,19 +35193,19 @@
       <c r="V4" s="1"/>
       <c r="W4" s="2">
         <f t="shared" ref="W4:W44" si="1">IFERROR(N4*9/D4,0)</f>
-        <v>2.1310181531176005</v>
+        <v>0</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" ref="X4:X44" si="2">W4/$W$2*100</f>
-        <v>31.547419988987368</v>
-      </c>
-      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="e">
         <f t="shared" ref="Y4:Y44" si="3">(L4+P4)/D4</f>
-        <v>0.47355958958168903</v>
-      </c>
-      <c r="Z4" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z4" s="2" t="e">
         <f t="shared" ref="Z4:Z44" si="4">(K4*9)/D4</f>
-        <v>8.5240726124704018</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" ref="AA4:AA44" si="5">(P4/9)*D4</f>
@@ -35208,9 +35215,9 @@
         <f t="shared" ref="AB4:AB44" si="6">K4/P4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="2" t="e">
         <f t="shared" ref="AC4:AC44" si="7">(M4*9)/D4</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" ref="AD4:AD44" si="8">(K4/U4)*100</f>
@@ -35238,38 +35245,38 @@
       </c>
       <c r="AK4">
         <f>SUMIF(Sheet1!$A:$A,'2025 썸머시즌 투수'!B4,Sheet1!$AE:$AE)</f>
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <f t="shared" ref="AL4:AL44" si="14">AK4/AO4</f>
-        <v>61</v>
-      </c>
-      <c r="AM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2" t="e">
         <f t="shared" ref="AM4:AM44" si="15">AK4/D4</f>
-        <v>9.6290449881610112</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AN4" s="2">
         <f t="shared" ref="AN4:AN44" si="16">AK4/U4</f>
-        <v>2.652173913043478</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>2</v>
       </c>
       <c r="AP4" s="2">
         <f t="shared" ref="AP4:AP44" si="17">D4*0.03</f>
-        <v>0.38009999999999999</v>
-      </c>
-      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="e">
         <f t="shared" ref="AQ4:AQ44" si="18">($W$2/W4) * D4/9</f>
-        <v>4.4624180939969342</v>
-      </c>
-      <c r="AR4" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR4" s="2" t="e">
         <f t="shared" ref="AR4:AR44" si="19">AQ4+AP4</f>
-        <v>4.8425180939969339</v>
-      </c>
-      <c r="AS4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS4" t="e">
         <f>AR4/'리그 상수'!$F$4</f>
-        <v>0.38432683285689928</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -35345,7 +35352,7 @@
       </c>
       <c r="X5" s="2">
         <f t="shared" si="2"/>
-        <v>171.25356095135817</v>
+        <v>172.54963135356195</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="3"/>
@@ -35416,15 +35423,15 @@
       </c>
       <c r="AQ5">
         <f t="shared" si="18"/>
-        <v>0.75716187124130163</v>
+        <v>0.75147460849089742</v>
       </c>
       <c r="AR5" s="2">
         <f t="shared" si="19"/>
-        <v>1.1072618712413016</v>
+        <v>1.1015746084908975</v>
       </c>
       <c r="AS5">
         <f>AR5/'리그 상수'!$F$4</f>
-        <v>8.7877926288992131E-2</v>
+        <v>8.742655622943625E-2</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -35500,7 +35507,7 @@
       </c>
       <c r="X6" s="2">
         <f t="shared" si="2"/>
-        <v>94.076095618822009</v>
+        <v>94.788076394048502</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="3"/>
@@ -35571,15 +35578,15 @@
       </c>
       <c r="AQ6">
         <f t="shared" si="18"/>
-        <v>1.3381602208383108</v>
+        <v>1.3281089107194195</v>
       </c>
       <c r="AR6" s="2">
         <f t="shared" si="19"/>
-        <v>1.6780602208383106</v>
+        <v>1.6680089107194194</v>
       </c>
       <c r="AS6">
         <f>AR6/'리그 상수'!$F$4</f>
-        <v>0.13317938260621504</v>
+        <v>0.1323816595809062</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -35655,7 +35662,7 @@
       </c>
       <c r="X7" s="2">
         <f t="shared" si="2"/>
-        <v>12.112297310923333</v>
+        <v>12.203964835733746</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="3"/>
@@ -35726,15 +35733,15 @@
       </c>
       <c r="AQ7">
         <f t="shared" si="18"/>
-        <v>10.090754799421704</v>
+        <v>10.014960209025691</v>
       </c>
       <c r="AR7" s="2">
         <f t="shared" si="19"/>
-        <v>10.420754799421704</v>
+        <v>10.344960209025691</v>
       </c>
       <c r="AS7">
         <f>AR7/'리그 상수'!$F$4</f>
-        <v>0.82704403170013474</v>
+        <v>0.82102858801791145</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -35810,7 +35817,7 @@
       </c>
       <c r="X8" s="2">
         <f t="shared" si="2"/>
-        <v>74.921426665505152</v>
+        <v>75.488442282889139</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="3"/>
@@ -35881,15 +35888,15 @@
       </c>
       <c r="AQ8">
         <f t="shared" si="18"/>
-        <v>1.5823985317959801</v>
+        <v>1.5705126767787123</v>
       </c>
       <c r="AR8" s="2">
         <f t="shared" si="19"/>
-        <v>1.9024985317959802</v>
+        <v>1.8906126767787124</v>
       </c>
       <c r="AS8">
         <f>AR8/'리그 상수'!$F$4</f>
-        <v>0.15099194696793483</v>
+        <v>0.15004862514116754</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -35965,7 +35972,7 @@
       </c>
       <c r="X9" s="2">
         <f t="shared" si="2"/>
-        <v>115.96880404075532</v>
+        <v>116.8464718314933</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="3"/>
@@ -36036,15 +36043,15 @@
       </c>
       <c r="AQ9">
         <f t="shared" si="18"/>
-        <v>0.99068788230766858</v>
+        <v>0.98324653785501126</v>
       </c>
       <c r="AR9" s="2">
         <f t="shared" si="19"/>
-        <v>1.3008878823076686</v>
+        <v>1.2934465378550113</v>
       </c>
       <c r="AS9">
         <f>AR9/'리그 상수'!$F$4</f>
-        <v>0.10324507002441807</v>
+        <v>0.10265448713135003</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -36120,7 +36127,7 @@
       </c>
       <c r="X10" s="2">
         <f t="shared" si="2"/>
-        <v>103.62743254901075</v>
+        <v>104.41169915016648</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="3"/>
@@ -36191,15 +36198,15 @@
       </c>
       <c r="AQ10">
         <f t="shared" si="18"/>
-        <v>0.96499544126701076</v>
+        <v>0.95774708020198474</v>
       </c>
       <c r="AR10" s="2">
         <f t="shared" si="19"/>
-        <v>1.2349954412670108</v>
+        <v>1.2277470802019848</v>
       </c>
       <c r="AS10">
         <f>AR10/'리그 상수'!$F$4</f>
-        <v>9.8015511211667461E-2</v>
+        <v>9.7440244460474917E-2</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -36275,7 +36282,7 @@
       </c>
       <c r="X11" s="2">
         <f t="shared" si="2"/>
-        <v>30.734779797037291</v>
+        <v>30.967384819624264</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="3"/>
@@ -36346,15 +36353,15 @@
       </c>
       <c r="AQ11">
         <f t="shared" si="18"/>
-        <v>3.1343427208357446</v>
+        <v>3.1107997622158319</v>
       </c>
       <c r="AR11" s="2">
         <f t="shared" si="19"/>
-        <v>3.3944427208357446</v>
+        <v>3.3708997622158319</v>
       </c>
       <c r="AS11">
         <f>AR11/'리그 상수'!$F$4</f>
-        <v>0.2694002159393446</v>
+        <v>0.26753172715998647</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -36430,7 +36437,7 @@
       </c>
       <c r="X12" s="2">
         <f t="shared" si="2"/>
-        <v>111.82816462123462</v>
+        <v>112.67449548579118</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="3"/>
@@ -36501,15 +36508,15 @@
       </c>
       <c r="AQ12">
         <f t="shared" si="18"/>
-        <v>0.82865230758755171</v>
+        <v>0.8224280594036687</v>
       </c>
       <c r="AR12" s="2">
         <f t="shared" si="19"/>
-        <v>1.0788523075875518</v>
+        <v>1.0726280594036686</v>
       </c>
       <c r="AS12">
         <f>AR12/'리그 상수'!$F$4</f>
-        <v>8.5623199014885007E-2</v>
+        <v>8.5129211063783156E-2</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -36585,7 +36592,7 @@
       </c>
       <c r="X13" s="2">
         <f t="shared" si="2"/>
-        <v>127.95704242031853</v>
+        <v>128.92543884088471</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="3"/>
@@ -36656,15 +36663,15 @@
       </c>
       <c r="AQ13">
         <f t="shared" si="18"/>
-        <v>0.72333303274957916</v>
+        <v>0.7178998682314699</v>
       </c>
       <c r="AR13" s="2">
         <f t="shared" si="19"/>
-        <v>0.97323303274957917</v>
+        <v>0.96779986823146991</v>
       </c>
       <c r="AS13">
         <f>AR13/'리그 상수'!$F$4</f>
-        <v>7.7240716884887178E-2</v>
+        <v>7.6809513351703912E-2</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -36740,7 +36747,7 @@
       </c>
       <c r="X14" s="2">
         <f t="shared" si="2"/>
-        <v>18.176708106433377</v>
+        <v>18.314271922656371</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="3"/>
@@ -36811,15 +36818,15 @@
       </c>
       <c r="AQ14">
         <f t="shared" si="18"/>
-        <v>4.4807037648152797</v>
+        <v>4.44704789731174</v>
       </c>
       <c r="AR14" s="2">
         <f t="shared" si="19"/>
-        <v>4.7006037648152796</v>
+        <v>4.66694789731174</v>
       </c>
       <c r="AS14">
         <f>AR14/'리그 상수'!$F$4</f>
-        <v>0.37306379085835528</v>
+        <v>0.37039269026283628</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -36895,7 +36902,7 @@
       </c>
       <c r="X15" s="2">
         <f t="shared" si="2"/>
-        <v>36.353416212866755</v>
+        <v>36.628543845312741</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="3"/>
@@ -36966,15 +36973,15 @@
       </c>
       <c r="AQ15">
         <f t="shared" si="18"/>
-        <v>2.2403518824076398</v>
+        <v>2.22352394865587</v>
       </c>
       <c r="AR15" s="2">
         <f t="shared" si="19"/>
-        <v>2.4602518824076398</v>
+        <v>2.44342394865587</v>
       </c>
       <c r="AS15">
         <f>AR15/'리그 상수'!$F$4</f>
-        <v>0.19525808590536811</v>
+        <v>0.19392253560760861</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -37050,7 +37057,7 @@
       </c>
       <c r="X16" s="2">
         <f t="shared" si="2"/>
-        <v>133.23527042015667</v>
+        <v>134.24361319307118</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="3"/>
@@ -37121,15 +37128,15 @@
       </c>
       <c r="AQ16">
         <f t="shared" si="18"/>
-        <v>0.58376267434671014</v>
+        <v>0.57937786333206476</v>
       </c>
       <c r="AR16" s="2">
         <f t="shared" si="19"/>
-        <v>0.79376267434671011</v>
+        <v>0.78937786333206472</v>
       </c>
       <c r="AS16">
         <f>AR16/'리그 상수'!$F$4</f>
-        <v>6.2997037646564252E-2</v>
+        <v>6.2649036772386049E-2</v>
       </c>
     </row>
     <row r="17" spans="1:45">
@@ -37205,7 +37212,7 @@
       </c>
       <c r="X17" s="2">
         <f t="shared" si="2"/>
-        <v>199.75302911567715</v>
+        <v>201.26478739590885</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="3"/>
@@ -37276,15 +37283,15 @@
       </c>
       <c r="AQ17">
         <f t="shared" si="18"/>
-        <v>0.37101370346776213</v>
+        <v>0.36822691177134137</v>
       </c>
       <c r="AR17" s="2">
         <f t="shared" si="19"/>
-        <v>0.57111370346776213</v>
+        <v>0.56832691177134143</v>
       </c>
       <c r="AS17">
         <f>AR17/'리그 상수'!$F$4</f>
-        <v>4.5326484402203313E-2</v>
+        <v>4.510531045804294E-2</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -37360,7 +37367,7 @@
       </c>
       <c r="X18" s="2">
         <f t="shared" si="2"/>
-        <v>44.411756806718891</v>
+        <v>44.747871064357064</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="3"/>
@@ -37431,15 +37438,15 @@
       </c>
       <c r="AQ18">
         <f t="shared" si="18"/>
-        <v>1.5011040197486833</v>
+        <v>1.4898287914253094</v>
       </c>
       <c r="AR18" s="2">
         <f t="shared" si="19"/>
-        <v>1.6811040197486833</v>
+        <v>1.6698287914253094</v>
       </c>
       <c r="AS18">
         <f>AR18/'리그 상수'!$F$4</f>
-        <v>0.13342095394830811</v>
+        <v>0.13252609455756414</v>
       </c>
     </row>
     <row r="19" spans="1:45">
@@ -37515,7 +37522,7 @@
       </c>
       <c r="X19" s="2">
         <f t="shared" si="2"/>
-        <v>22.205878403359446</v>
+        <v>22.373935532178532</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="3"/>
@@ -37586,15 +37593,15 @@
       </c>
       <c r="AQ19">
         <f t="shared" si="18"/>
-        <v>3.0022080394973667</v>
+        <v>2.9796575828506189</v>
       </c>
       <c r="AR19" s="2">
         <f t="shared" si="19"/>
-        <v>3.1822080394973669</v>
+        <v>3.159657582850619</v>
       </c>
       <c r="AS19">
         <f>AR19/'리그 상수'!$F$4</f>
-        <v>0.25255619361090198</v>
+        <v>0.25076647482941405</v>
       </c>
     </row>
     <row r="20" spans="1:45">
@@ -37670,7 +37677,7 @@
       </c>
       <c r="X20" s="2">
         <f t="shared" si="2"/>
-        <v>106.58821633612534</v>
+        <v>107.39489055445696</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="3"/>
@@ -37741,15 +37748,15 @@
       </c>
       <c r="AQ20">
         <f t="shared" si="18"/>
-        <v>0.52121667352384837</v>
+        <v>0.5173016636893436</v>
       </c>
       <c r="AR20" s="2">
         <f t="shared" si="19"/>
-        <v>0.67121667352384839</v>
+        <v>0.66730166368934363</v>
       </c>
       <c r="AS20">
         <f>AR20/'리그 상수'!$F$4</f>
-        <v>5.3271164565384756E-2</v>
+        <v>5.2960449499154218E-2</v>
       </c>
     </row>
     <row r="21" spans="1:45">
@@ -37825,7 +37832,7 @@
       </c>
       <c r="X21" s="2">
         <f t="shared" si="2"/>
-        <v>92.310810914658191</v>
+        <v>93.009431773490419</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="3"/>
@@ -37896,15 +37903,15 @@
       </c>
       <c r="AQ21">
         <f t="shared" si="18"/>
-        <v>0.52118609547900174</v>
+        <v>0.51727131532507387</v>
       </c>
       <c r="AR21" s="2">
         <f t="shared" si="19"/>
-        <v>0.65108609547900176</v>
+        <v>0.64717131532507388</v>
       </c>
       <c r="AS21">
         <f>AR21/'리그 상수'!$F$4</f>
-        <v>5.1673499641190578E-2</v>
+        <v>5.1362802803577259E-2</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -37980,7 +37987,7 @@
       </c>
       <c r="X22" s="2">
         <f t="shared" si="2"/>
-        <v>33.308817605039167</v>
+        <v>33.560903298267796</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="3"/>
@@ -38051,15 +38058,15 @@
       </c>
       <c r="AQ22">
         <f t="shared" si="18"/>
-        <v>1.3343146842210518</v>
+        <v>1.3242922590447195</v>
       </c>
       <c r="AR22" s="2">
         <f t="shared" si="19"/>
-        <v>1.4543146842210519</v>
+        <v>1.4442922590447194</v>
       </c>
       <c r="AS22">
         <f>AR22/'리그 상수'!$F$4</f>
-        <v>0.11542180033500404</v>
+        <v>0.11462636976545384</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -38135,7 +38142,7 @@
       </c>
       <c r="X23" s="2">
         <f t="shared" si="2"/>
-        <v>222.05878403359443</v>
+        <v>223.73935532178533</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="3"/>
@@ -38206,15 +38213,15 @@
       </c>
       <c r="AQ23">
         <f t="shared" si="18"/>
-        <v>0.15011040197486833</v>
+        <v>0.14898287914253097</v>
       </c>
       <c r="AR23" s="2">
         <f t="shared" si="19"/>
-        <v>0.24011040197486833</v>
+        <v>0.23898287914253097</v>
       </c>
       <c r="AS23">
         <f>AR23/'리그 상수'!$F$4</f>
-        <v>1.9056381109116522E-2</v>
+        <v>1.8966895170042127E-2</v>
       </c>
     </row>
     <row r="24" spans="1:45">
@@ -38445,7 +38452,7 @@
       </c>
       <c r="X25" s="2">
         <f t="shared" si="2"/>
-        <v>99.801700689255938</v>
+        <v>100.5570136277687</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="3"/>
@@ -38516,15 +38523,15 @@
       </c>
       <c r="AQ25">
         <f t="shared" si="18"/>
-        <v>0.29725612351073294</v>
+        <v>0.2950233464219969</v>
       </c>
       <c r="AR25" s="2">
         <f t="shared" si="19"/>
-        <v>0.37735612351073294</v>
+        <v>0.37512334642199691</v>
       </c>
       <c r="AS25">
         <f>AR25/'리그 상수'!$F$4</f>
-        <v>2.9948898691327989E-2</v>
+        <v>2.9771694160475926E-2</v>
       </c>
     </row>
     <row r="26" spans="1:45">
@@ -38600,7 +38607,7 @@
       </c>
       <c r="X26" s="2">
         <f t="shared" si="2"/>
-        <v>57.182519493629471</v>
+        <v>57.615284632219399</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="3"/>
@@ -38671,15 +38678,15 @@
       </c>
       <c r="AQ26">
         <f t="shared" si="18"/>
-        <v>0.45274131182297928</v>
+        <v>0.44934064032049242</v>
       </c>
       <c r="AR26" s="2">
         <f t="shared" si="19"/>
-        <v>0.52264131182297924</v>
+        <v>0.51924064032049244</v>
       </c>
       <c r="AS26">
         <f>AR26/'리그 상수'!$F$4</f>
-        <v>4.147946919229991E-2</v>
+        <v>4.1209574628610482E-2</v>
       </c>
     </row>
     <row r="27" spans="1:45">
@@ -38910,7 +38917,7 @@
       </c>
       <c r="X28" s="2">
         <f t="shared" si="2"/>
-        <v>56.938149752203707</v>
+        <v>57.36906546712445</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="3"/>
@@ -38981,15 +38988,15 @@
       </c>
       <c r="AQ28">
         <f t="shared" si="18"/>
-        <v>0.45663584280754943</v>
+        <v>0.45320591835157908</v>
       </c>
       <c r="AR28" s="2">
         <f t="shared" si="19"/>
-        <v>0.52683584280754947</v>
+        <v>0.52340591835157912</v>
       </c>
       <c r="AS28">
         <f>AR28/'리그 상수'!$F$4</f>
-        <v>4.181236847678961E-2</v>
+        <v>4.1540152250125299E-2</v>
       </c>
     </row>
     <row r="29" spans="1:45">
@@ -39065,7 +39072,7 @@
       </c>
       <c r="X29" s="2">
         <f t="shared" si="2"/>
-        <v>79.781599053986028</v>
+        <v>80.385397121599524</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="3"/>
@@ -39136,15 +39143,15 @@
       </c>
       <c r="AQ29">
         <f t="shared" si="18"/>
-        <v>0.23257938892650568</v>
+        <v>0.23083241757811365</v>
       </c>
       <c r="AR29" s="2">
         <f t="shared" si="19"/>
-        <v>0.28267938892650568</v>
+        <v>0.28093241757811366</v>
       </c>
       <c r="AS29">
         <f>AR29/'리그 상수'!$F$4</f>
-        <v>2.2434872137024244E-2</v>
+        <v>2.2296223617310592E-2</v>
       </c>
     </row>
     <row r="30" spans="1:45">
@@ -39220,7 +39227,7 @@
       </c>
       <c r="X30" s="2">
         <f t="shared" si="2"/>
-        <v>319.12639621594411</v>
+        <v>321.5415884863981</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="3"/>
@@ -39291,15 +39298,15 @@
       </c>
       <c r="AQ30">
         <f t="shared" si="18"/>
-        <v>5.8144847231626419E-2</v>
+        <v>5.7708104394528413E-2</v>
       </c>
       <c r="AR30" s="2">
         <f t="shared" si="19"/>
-        <v>0.10824484723162642</v>
+        <v>0.10780810439452841</v>
       </c>
       <c r="AS30">
         <f>AR30/'리그 상수'!$F$4</f>
-        <v>8.590860891398917E-3</v>
+        <v>8.5561987614705039E-3</v>
       </c>
     </row>
     <row r="31" spans="1:45">
@@ -39375,7 +39382,7 @@
       </c>
       <c r="X31" s="2">
         <f t="shared" si="2"/>
-        <v>80.262211096479916</v>
+        <v>80.869646501850113</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="3"/>
@@ -39446,15 +39453,15 @@
       </c>
       <c r="AQ31">
         <f t="shared" si="18"/>
-        <v>0.22980234648997067</v>
+        <v>0.22807623431397683</v>
       </c>
       <c r="AR31" s="2">
         <f t="shared" si="19"/>
-        <v>0.27960234648997068</v>
+        <v>0.27787623431397684</v>
       </c>
       <c r="AS31">
         <f>AR31/'리그 상수'!$F$4</f>
-        <v>2.2190662419838927E-2</v>
+        <v>2.2053669389998146E-2</v>
       </c>
     </row>
     <row r="32" spans="1:45">
@@ -39995,7 +40002,7 @@
       </c>
       <c r="X35" s="2">
         <f t="shared" si="2"/>
-        <v>994.29306283699009</v>
+        <v>1001.8180089035164</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="3"/>
@@ -40066,15 +40073,15 @@
       </c>
       <c r="AQ35">
         <f t="shared" si="18"/>
-        <v>7.4871732718353769E-3</v>
+        <v>7.4309349385646827E-3</v>
       </c>
       <c r="AR35" s="2">
         <f t="shared" si="19"/>
-        <v>2.7587173271835377E-2</v>
+        <v>2.7530934938564684E-2</v>
       </c>
       <c r="AS35">
         <f>AR35/'리그 상수'!$F$4</f>
-        <v>2.1894581961774094E-3</v>
+        <v>2.1849948363940209E-3</v>
       </c>
     </row>
     <row r="36" spans="1:45">
@@ -40150,7 +40157,7 @@
       </c>
       <c r="X36" s="2">
         <f t="shared" si="2"/>
-        <v>403.74324369744443</v>
+        <v>406.79882785779142</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="3"/>
@@ -40221,15 +40228,15 @@
       </c>
       <c r="AQ36">
         <f t="shared" si="18"/>
-        <v>9.0816793194795353E-3</v>
+        <v>9.0134641881231235E-3</v>
       </c>
       <c r="AR36" s="2">
         <f t="shared" si="19"/>
-        <v>1.8981679319479534E-2</v>
+        <v>1.8913464188123126E-2</v>
       </c>
       <c r="AS36">
         <f>AR36/'리그 상수'!$F$4</f>
-        <v>1.5064824856729779E-3</v>
+        <v>1.5010685863589771E-3</v>
       </c>
     </row>
     <row r="37" spans="1:45">
@@ -41382,7 +41389,7 @@
       </c>
       <c r="X44" s="2">
         <f t="shared" si="2"/>
-        <v>266.47054084031333</v>
+        <v>268.48722638614237</v>
       </c>
       <c r="Y44" s="2">
         <f t="shared" si="3"/>
@@ -41453,15 +41460,15 @@
       </c>
       <c r="AQ44">
         <f t="shared" si="18"/>
-        <v>4.1697333881907869E-2</v>
+        <v>4.1384133095147484E-2</v>
       </c>
       <c r="AR44" s="2">
         <f t="shared" si="19"/>
-        <v>7.1697333881907868E-2</v>
+        <v>7.138413309514749E-2</v>
       </c>
       <c r="AS44">
         <f>AR44/'리그 상수'!$B$4</f>
-        <v>7.1128307422527598E-3</v>
+        <v>7.0817592356297058E-3</v>
       </c>
     </row>
     <row r="45" spans="1:45">
@@ -41971,10 +41978,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2">
         <f>'2025 썸머시즌 타자'!H2/('2025 썸머시즌 타자'!J2+'2025 썸머시즌 타자'!K2+'2025 썸머시즌 타자'!L2+'2025 썸머시즌 타자'!M2+'2025 썸머시즌 타자'!R2+'2025 썸머시즌 타자'!S2)</f>
         <v>0.51219512195121952</v>
@@ -42101,10 +42108,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="19"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
